--- a/chipSolver/data/bestof4.xlsx
+++ b/chipSolver/data/bestof4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s147057\Documents\GitHub\Chips\chipSolver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s147057\Documents\GitHub\Chips\chipSolver\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F334D18-9994-4E54-8BCB-E6D52642C794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DB0819-AEBA-4743-AACA-D4B2190FBC35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{12C86115-8748-4CEA-8141-70CBBA12BF3F}"/>
   </bookViews>
@@ -30,45 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>[((7, 8, 0), (9, 8, 0)), ((2, 6, 0), (15, 12, 0)), ((9, 8, 0), (6, 3, 0)), ((3, 2, 0), (4, 5, 0)), ((2, 4, 0), (1, 9, 0)), ((1, 3, 0), (12, 6, 0)), ((16, 7, 0), (1, 9, 0)), ((9, 13, 0), (10, 6, 0)), ((10, 5, 0), (15, 12, 0)), ((13, 7, 0), (6, 8, 0)), ((2, 12, 0), (8, 15, 0)), ((6, 8, 0), (2, 12, 0)), ((14, 2, 0), (12, 6, 0)), ((8, 4, 0), (1, 1, 0)), ((1, 5, 0), (16, 15, 0)), ((14, 2, 0), (4, 5, 0)), ((4, 5, 0), (2, 12, 0)), ((15, 8, 0), (3, 2, 0)), ((6, 14, 0), (9, 8, 0)), ((16, 7, 0), (16, 5, 0)), ((10, 5, 0), (6, 14, 0)), ((13, 7, 0), (13, 15, 0)), ((8, 4, 0), (8, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((13, 15, 0), (15, 1, 0)), ((15, 8, 0), (6, 14, 0)), ((1, 9, 0), (12, 2, 0)), ((15, 12, 0), (4, 5, 0)), ((10, 1, 0), (4, 12, 0)), ((6, 9, 0), (15, 3, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 1, 0), (13, 13, 0)), ((15, 1, 0), (4, 14, 0)), ((7, 6, 0), (2, 12, 0)), ((3, 2, 0), (4, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((12, 6, 0), (1, 1, 0)), ((15, 6, 0), (11, 15, 0)), ((11, 8, 0), (3, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 15, 0), (12, 11, 0)), ((6, 1, 0), (8, 4, 0)), ((15, 1, 0), (10, 1, 0)), ((4, 5, 0), (8, 4, 0)), ((15, 8, 0), (9, 10, 0)), ((4, 14, 0), (6, 3, 0)), ((11, 8, 0), (6, 9, 0)), ((16, 15, 0), (15, 6, 0))]</t>
-  </si>
-  <si>
-    <t>[((13, 7, 0), (13, 15, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 15, 0), (12, 2, 0)), ((15, 8, 0), (9, 10, 0)), ((10, 5, 0), (15, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((8, 4, 0), (1, 1, 0)), ((2, 6, 0), (15, 12, 0)), ((9, 8, 0), (6, 3, 0)), ((4, 5, 0), (2, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((15, 12, 0), (4, 5, 0)), ((10, 5, 0), (6, 14, 0)), ((3, 2, 0), (4, 5, 0)), ((4, 5, 0), (8, 4, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 1, 0), (10, 1, 0)), ((10, 1, 0), (4, 12, 0)), ((16, 7, 0), (1, 9, 0)), ((7, 6, 0), (2, 12, 0)), ((11, 8, 0), (6, 9, 0)), ((12, 6, 0), (1, 1, 0)), ((8, 4, 0), (8, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((3, 2, 0), (4, 12, 0)), ((6, 1, 0), (13, 13, 0)), ((1, 3, 0), (12, 6, 0)), ((15, 1, 0), (4, 14, 0)), ((2, 12, 0), (8, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((2, 4, 0), (1, 9, 0)), ((12, 3, 0), (11, 8, 0)), ((11, 5, 0), (7, 12, 0)), ((15, 8, 0), (3, 2, 0)), ((4, 14, 0), (6, 3, 0)), ((13, 15, 0), (15, 1, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 15, 0), (12, 11, 0)), ((7, 8, 0), (9, 8, 0)), ((9, 13, 0), (10, 6, 0)), ((15, 6, 0), (11, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((13, 7, 0), (6, 8, 0)), ((6, 8, 0), (2, 12, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 9, 0), (15, 3, 0)), ((1, 5, 0), (16, 15, 0)), ((1, 9, 0), (12, 2, 0)), ((6, 7, 0), (3, 2, 0)), ((15, 8, 0), (6, 14, 0))]</t>
-  </si>
-  <si>
-    <t>[((14, 2, 0), (12, 6, 0)), ((13, 7, 0), (6, 8, 0)), ((6, 7, 0), (3, 2, 0)), ((2, 6, 0), (15, 12, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 9, 0), (12, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((8, 4, 0), (1, 1, 0)), ((6, 1, 0), (8, 4, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 12, 0), (4, 5, 0)), ((16, 15, 0), (15, 6, 0)), ((8, 4, 0), (8, 15, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 9, 0), (15, 3, 0)), ((6, 8, 0), (2, 12, 0)), ((3, 2, 0), (4, 12, 0)), ((6, 1, 0), (13, 13, 0)), ((12, 6, 0), (1, 1, 0)), ((1, 3, 0), (12, 6, 0)), ((1, 5, 0), (16, 15, 0)), ((14, 2, 0), (4, 5, 0)), ((7, 6, 0), (2, 12, 0)), ((15, 8, 0), (9, 10, 0)), ((10, 5, 0), (15, 12, 0)), ((7, 8, 0), (9, 8, 0)), ((4, 14, 0), (6, 3, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 1, 0), (4, 14, 0)), ((15, 8, 0), (6, 14, 0)), ((16, 7, 0), (1, 9, 0)), ((13, 7, 0), (13, 15, 0)), ((13, 15, 0), (15, 1, 0)), ((11, 8, 0), (6, 9, 0)), ((9, 13, 0), (10, 6, 0)), ((15, 1, 0), (10, 1, 0)), ((15, 6, 0), (11, 15, 0)), ((1, 9, 0), (15, 1, 0)), ((10, 1, 0), (4, 12, 0)), ((2, 12, 0), (8, 15, 0)), ((6, 15, 0), (12, 11, 0)), ((3, 2, 0), (4, 5, 0)), ((2, 4, 0), (1, 9, 0)), ((4, 5, 0), (2, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((12, 3, 0), (11, 8, 0)), ((9, 8, 0), (6, 3, 0)), ((10, 5, 0), (6, 14, 0))]</t>
-  </si>
-  <si>
-    <t>[((7, 6, 0), (2, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((15, 1, 0), (10, 1, 0)), ((16, 7, 0), (1, 9, 0)), ((3, 2, 0), (4, 5, 0)), ((15, 12, 0), (4, 5, 0)), ((4, 5, 0), (8, 4, 0)), ((8, 4, 0), (8, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((10, 5, 0), (15, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((9, 13, 0), (10, 6, 0)), ((6, 1, 0), (8, 4, 0)), ((6, 8, 0), (2, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((15, 1, 0), (4, 14, 0)), ((1, 9, 0), (12, 2, 0)), ((11, 8, 0), (6, 9, 0)), ((1, 3, 0), (12, 6, 0)), ((1, 1, 0), (8, 15, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 15, 0), (15, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((15, 6, 0), (11, 15, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (1, 1, 0)), ((2, 12, 0), (8, 15, 0)), ((10, 1, 0), (4, 12, 0)), ((6, 14, 0), (9, 8, 0)), ((15, 8, 0), (3, 2, 0)), ((6, 15, 0), (12, 11, 0)), ((2, 6, 0), (15, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((12, 3, 0), (11, 8, 0)), ((11, 8, 0), (3, 2, 0)), ((4, 5, 0), (2, 12, 0)), ((13, 7, 0), (13, 15, 0)), ((4, 14, 0), (6, 3, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 7, 0), (3, 2, 0)), ((15, 8, 0), (9, 10, 0)), ((12, 6, 0), (1, 1, 0)), ((10, 5, 0), (6, 14, 0)), ((2, 4, 0), (1, 9, 0)), ((6, 9, 0), (15, 3, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 1, 0), (13, 13, 0)), ((13, 7, 0), (6, 8, 0)), ((15, 8, 0), (6, 14, 0)), ((3, 2, 0), (4, 12, 0))]</t>
-  </si>
-  <si>
-    <t>[((4, 14, 0), (6, 3, 0)), ((11, 5, 0), (7, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((12, 6, 0), (1, 1, 0)), ((9, 8, 0), (6, 3, 0)), ((15, 1, 0), (10, 1, 0)), ((16, 15, 0), (15, 6, 0)), ((2, 6, 0), (15, 12, 0)), ((10, 5, 0), (15, 12, 0)), ((2, 4, 0), (1, 9, 0)), ((10, 5, 0), (6, 14, 0)), ((14, 2, 0), (12, 6, 0)), ((8, 4, 0), (8, 15, 0)), ((1, 9, 0), (12, 2, 0)), ((15, 12, 0), (4, 5, 0)), ((1, 9, 0), (15, 1, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 1, 0), (4, 14, 0)), ((9, 13, 0), (10, 6, 0)), ((1, 1, 0), (8, 15, 0)), ((1, 3, 0), (12, 6, 0)), ((6, 1, 0), (8, 4, 0)), ((15, 8, 0), (6, 14, 0)), ((14, 2, 0), (4, 5, 0)), ((3, 2, 0), (4, 12, 0)), ((13, 7, 0), (13, 15, 0)), ((15, 8, 0), (9, 10, 0)), ((8, 4, 0), (1, 1, 0)), ((2, 12, 0), (8, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((4, 5, 0), (8, 4, 0)), ((7, 8, 0), (9, 8, 0)), ((6, 9, 0), (15, 3, 0)), ((3, 2, 0), (4, 5, 0)), ((6, 14, 0), (9, 8, 0)), ((11, 8, 0), (6, 9, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 7, 0), (3, 2, 0)), ((6, 15, 0), (12, 11, 0)), ((13, 15, 0), (15, 1, 0)), ((10, 1, 0), (4, 12, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 1, 0), (13, 13, 0)), ((6, 8, 0), (2, 12, 0)), ((16, 7, 0), (16, 5, 0)), ((16, 7, 0), (1, 9, 0)), ((13, 7, 0), (6, 8, 0)), ((4, 5, 0), (2, 12, 0)), ((7, 6, 0), (2, 12, 0))]</t>
-  </si>
-  <si>
-    <t>[((11, 8, 0), (3, 2, 0)), ((7, 6, 0), (2, 12, 0)), ((12, 3, 0), (11, 8, 0)), ((1, 5, 0), (16, 15, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 14, 0), (6, 3, 0)), ((4, 5, 0), (2, 12, 0)), ((10, 1, 0), (4, 12, 0)), ((10, 5, 0), (6, 14, 0)), ((15, 8, 0), (6, 14, 0)), ((6, 1, 0), (13, 13, 0)), ((13, 7, 0), (6, 8, 0)), ((2, 4, 0), (1, 9, 0)), ((3, 2, 0), (4, 5, 0)), ((9, 8, 0), (6, 3, 0)), ((8, 4, 0), (1, 1, 0)), ((6, 1, 0), (8, 4, 0)), ((16, 7, 0), (1, 9, 0)), ((13, 15, 0), (15, 1, 0)), ((15, 1, 0), (10, 1, 0)), ((16, 15, 0), (15, 6, 0)), ((1, 1, 0), (8, 15, 0)), ((4, 5, 0), (8, 4, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (8, 15, 0)), ((10, 5, 0), (15, 12, 0)), ((9, 13, 0), (10, 6, 0)), ((1, 15, 0), (12, 2, 0)), ((1, 9, 0), (12, 2, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 8, 0), (9, 10, 0)), ((15, 6, 0), (11, 15, 0)), ((15, 1, 0), (4, 14, 0)), ((3, 2, 0), (4, 12, 0)), ((14, 2, 0), (12, 6, 0)), ((2, 6, 0), (15, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((15, 12, 0), (4, 5, 0)), ((6, 7, 0), (3, 2, 0)), ((11, 8, 0), (6, 9, 0)), ((6, 9, 0), (15, 3, 0)), ((1, 9, 0), (15, 1, 0)), ((1, 3, 0), (12, 6, 0)), ((2, 12, 0), (8, 15, 0)), ((12, 6, 0), (1, 1, 0)), ((13, 7, 0), (13, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 14, 0), (9, 8, 0)), ((15, 8, 0), (3, 2, 0))]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>list</t>
-  </si>
-  <si>
-    <t>[((16, 7, 0), (16, 5, 0)), ((11, 8, 0), (6, 9, 0)), ((13, 7, 0), (6, 8, 0)), ((2, 12, 0), (8, 15, 0)), ((10, 1, 0), (4, 12, 0)), ((15, 8, 0), (6, 14, 0)), ((10, 5, 0), (6, 14, 0)), ((1, 15, 0), (12, 2, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 1, 0), (10, 1, 0)), ((15, 1, 0), (4, 14, 0)), ((3, 2, 0), (4, 12, 0)), ((1, 9, 0), (12, 2, 0)), ((6, 15, 0), (12, 11, 0)), ((12, 3, 0), (11, 8, 0)), ((15, 8, 0), (9, 10, 0)), ((14, 2, 0), (12, 6, 0)), ((1, 9, 0), (15, 1, 0)), ((7, 6, 0), (2, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((9, 8, 0), (6, 3, 0)), ((11, 8, 0), (3, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((15, 6, 0), (11, 15, 0)), ((16, 7, 0), (1, 9, 0)), ((15, 8, 0), (3, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((13, 15, 0), (15, 1, 0)), ((3, 2, 0), (4, 5, 0)), ((4, 5, 0), (2, 12, 0)), ((4, 14, 0), (6, 3, 0)), ((13, 7, 0), (13, 15, 0)), ((6, 7, 0), (3, 2, 0)), ((15, 12, 0), (4, 5, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 8, 0), (2, 12, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 14, 0), (9, 8, 0)), ((16, 15, 0), (15, 6, 0)), ((2, 6, 0), (15, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 1, 0), (13, 13, 0)), ((9, 13, 0), (10, 6, 0)), ((2, 4, 0), (1, 9, 0)), ((8, 4, 0), (1, 1, 0)), ((6, 1, 0), (8, 4, 0)), ((12, 6, 0), (1, 1, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (8, 15, 0))]</t>
-  </si>
-  <si>
-    <t>[((6, 7, 0), (3, 2, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 6, 0), (11, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((12, 3, 0), (11, 8, 0)), ((10, 1, 0), (4, 12, 0)), ((10, 5, 0), (15, 12, 0)), ((2, 12, 0), (8, 15, 0)), ((1, 9, 0), (12, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((8, 4, 0), (8, 15, 0)), ((1, 15, 0), (12, 2, 0)), ((16, 7, 0), (1, 9, 0)), ((9, 13, 0), (10, 6, 0)), ((15, 1, 0), (10, 1, 0)), ((8, 4, 0), (1, 1, 0)), ((3, 2, 0), (4, 5, 0)), ((6, 9, 0), (15, 3, 0)), ((15, 8, 0), (9, 10, 0)), ((2, 4, 0), (1, 9, 0)), ((1, 3, 0), (12, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((13, 15, 0), (15, 1, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 1, 0), (4, 14, 0)), ((11, 8, 0), (6, 9, 0)), ((14, 2, 0), (12, 6, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 8, 0), (2, 12, 0)), ((2, 6, 0), (15, 12, 0)), ((10, 5, 0), (6, 14, 0)), ((4, 14, 0), (6, 3, 0)), ((16, 15, 0), (15, 6, 0)), ((15, 8, 0), (6, 14, 0)), ((1, 5, 0), (16, 15, 0)), ((1, 9, 0), (15, 1, 0)), ((6, 1, 0), (8, 4, 0)), ((6, 1, 0), (13, 13, 0)), ((4, 5, 0), (2, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((6, 14, 0), (9, 8, 0)), ((7, 8, 0), (9, 8, 0)), ((15, 12, 0), (4, 5, 0)), ((16, 7, 0), (16, 5, 0)), ((7, 6, 0), (2, 12, 0)), ((3, 2, 0), (4, 12, 0)), ((12, 6, 0), (1, 1, 0)), ((15, 8, 0), (3, 2, 0)), ((13, 7, 0), (13, 15, 0)), ((14, 2, 0), (4, 5, 0))]</t>
-  </si>
-  <si>
-    <t>[((13, 7, 0), (13, 15, 0)), ((7, 8, 0), (9, 8, 0)), ((4, 5, 0), (2, 12, 0)), ((6, 9, 0), (15, 3, 0)), ((12, 3, 0), (11, 8, 0)), ((10, 5, 0), (6, 14, 0)), ((15, 6, 0), (11, 15, 0)), ((1, 9, 0), (15, 1, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 8, 0), (2, 12, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 12, 0), (4, 5, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 8, 0), (6, 14, 0)), ((2, 4, 0), (1, 9, 0)), ((4, 5, 0), (8, 4, 0)), ((9, 8, 0), (6, 3, 0)), ((1, 9, 0), (12, 2, 0)), ((15, 8, 0), (9, 10, 0)), ((8, 4, 0), (1, 1, 0)), ((3, 2, 0), (4, 5, 0)), ((15, 8, 0), (3, 2, 0)), ((14, 2, 0), (4, 5, 0)), ((4, 14, 0), (6, 3, 0)), ((6, 14, 0), (9, 8, 0)), ((6, 1, 0), (13, 13, 0)), ((1, 3, 0), (12, 6, 0)), ((10, 1, 0), (4, 12, 0)), ((7, 6, 0), (2, 12, 0)), ((2, 6, 0), (15, 12, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 1, 0), (10, 1, 0)), ((16, 7, 0), (1, 9, 0)), ((6, 1, 0), (8, 4, 0)), ((14, 2, 0), (12, 6, 0)), ((9, 13, 0), (10, 6, 0)), ((11, 8, 0), (3, 2, 0)), ((16, 15, 0), (15, 6, 0)), ((13, 15, 0), (15, 1, 0)), ((15, 1, 0), (4, 14, 0)), ((1, 1, 0), (8, 15, 0)), ((1, 15, 0), (12, 2, 0)), ((8, 4, 0), (8, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((12, 6, 0), (1, 1, 0)), ((3, 2, 0), (4, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((6, 7, 0), (3, 2, 0)), ((2, 12, 0), (8, 15, 0)), ((11, 8, 0), (6, 9, 0))]</t>
-  </si>
-  <si>
-    <t>[((11, 8, 0), (6, 9, 0)), ((2, 12, 0), (8, 15, 0)), ((8, 4, 0), (8, 15, 0)), ((2, 6, 0), (15, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((16, 7, 0), (1, 9, 0)), ((13, 7, 0), (13, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 1, 0), (8, 4, 0)), ((1, 1, 0), (8, 15, 0)), ((9, 13, 0), (10, 6, 0)), ((12, 6, 0), (1, 1, 0)), ((1, 9, 0), (15, 1, 0)), ((3, 2, 0), (4, 12, 0)), ((7, 8, 0), (9, 8, 0)), ((15, 1, 0), (4, 14, 0)), ((6, 1, 0), (13, 13, 0)), ((14, 2, 0), (4, 5, 0)), ((10, 5, 0), (15, 12, 0)), ((4, 5, 0), (2, 12, 0)), ((1, 5, 0), (16, 15, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 8, 0), (2, 12, 0)), ((3, 2, 0), (4, 5, 0)), ((1, 3, 0), (12, 6, 0)), ((7, 6, 0), (2, 12, 0)), ((10, 1, 0), (4, 12, 0)), ((15, 6, 0), (11, 15, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 12, 0), (4, 5, 0)), ((4, 14, 0), (6, 3, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((6, 14, 0), (9, 8, 0)), ((13, 15, 0), (15, 1, 0)), ((13, 7, 0), (6, 8, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 1, 0), (10, 1, 0)), ((6, 15, 0), (12, 11, 0)), ((12, 3, 0), (11, 8, 0)), ((15, 8, 0), (9, 10, 0)), ((14, 2, 0), (12, 6, 0)), ((16, 15, 0), (15, 6, 0)), ((8, 4, 0), (1, 1, 0)), ((1, 9, 0), (12, 2, 0)), ((10, 5, 0), (6, 14, 0)), ((9, 8, 0), (6, 3, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 8, 0), (6, 14, 0))]</t>
-  </si>
-  <si>
-    <t>[((6, 1, 0), (13, 13, 0)), ((4, 5, 0), (8, 4, 0)), ((12, 3, 0), (11, 8, 0)), ((15, 8, 0), (6, 14, 0)), ((8, 4, 0), (8, 15, 0)), ((11, 5, 0), (7, 12, 0)), ((15, 12, 0), (4, 5, 0)), ((9, 13, 0), (10, 6, 0)), ((14, 2, 0), (4, 5, 0)), ((10, 5, 0), (6, 14, 0)), ((2, 12, 0), (8, 15, 0)), ((11, 8, 0), (3, 2, 0)), ((13, 7, 0), (6, 8, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 9, 0), (15, 1, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 9, 0), (12, 2, 0)), ((13, 7, 0), (13, 15, 0)), ((15, 1, 0), (4, 14, 0)), ((11, 8, 0), (6, 9, 0)), ((15, 8, 0), (9, 10, 0)), ((6, 8, 0), (2, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((4, 5, 0), (2, 12, 0)), ((16, 7, 0), (16, 5, 0)), ((10, 5, 0), (15, 12, 0)), ((2, 4, 0), (1, 9, 0)), ((3, 2, 0), (4, 12, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 7, 0), (1, 9, 0)), ((7, 8, 0), (9, 8, 0)), ((14, 2, 0), (12, 6, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 9, 0), (15, 3, 0)), ((6, 15, 0), (12, 11, 0)), ((3, 2, 0), (4, 5, 0)), ((8, 4, 0), (1, 1, 0)), ((13, 15, 0), (15, 1, 0)), ((16, 15, 0), (15, 6, 0)), ((12, 6, 0), (1, 1, 0)), ((9, 8, 0), (6, 3, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((6, 1, 0), (8, 4, 0)), ((2, 6, 0), (15, 12, 0)), ((7, 6, 0), (2, 12, 0)), ((1, 1, 0), (8, 15, 0)), ((4, 14, 0), (6, 3, 0)), ((10, 1, 0), (4, 12, 0)), ((15, 1, 0), (10, 1, 0))]</t>
-  </si>
-  <si>
-    <t>[((13, 15, 0), (15, 1, 0)), ((15, 8, 0), (9, 10, 0)), ((12, 6, 0), (1, 1, 0)), ((4, 5, 0), (2, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((4, 5, 0), (8, 4, 0)), ((3, 2, 0), (4, 5, 0)), ((14, 2, 0), (12, 6, 0)), ((7, 8, 0), (9, 8, 0)), ((6, 7, 0), (3, 2, 0)), ((8, 4, 0), (1, 1, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 5, 0), (16, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((11, 8, 0), (3, 2, 0)), ((2, 4, 0), (1, 9, 0)), ((6, 15, 0), (12, 11, 0)), ((16, 7, 0), (16, 5, 0)), ((7, 6, 0), (2, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((4, 14, 0), (6, 3, 0)), ((12, 3, 0), (11, 8, 0)), ((9, 8, 0), (6, 3, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 9, 0), (12, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((2, 6, 0), (15, 12, 0)), ((15, 8, 0), (6, 14, 0)), ((8, 4, 0), (8, 15, 0)), ((2, 12, 0), (8, 15, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 12, 0), (4, 5, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 9, 0), (15, 1, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((16, 7, 0), (1, 9, 0)), ((13, 7, 0), (13, 15, 0)), ((10, 5, 0), (6, 14, 0)), ((1, 3, 0), (12, 6, 0)), ((11, 5, 0), (7, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((3, 2, 0), (4, 12, 0)), ((15, 1, 0), (4, 14, 0)), ((1, 15, 0), (12, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 1, 0), (13, 13, 0)), ((9, 13, 0), (10, 6, 0)), ((15, 1, 0), (10, 1, 0)), ((11, 8, 0), (6, 9, 0))]</t>
   </si>
 </sst>
 </file>
@@ -420,77 +384,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023472C6-2451-4CC9-A7DA-074456926344}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="B7">
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
